--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboGLAccountClassProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboGLAccountClassProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB056E1B-3A7F-4232-AB4F-784F6C725750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA0407-2703-468F-AD1F-CA09BA8FF03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="760" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{9005A130-DB4E-48B4-8613-6A06D3AE5785}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Keyword</t>
   </si>
@@ -121,9 +121,6 @@
     <t>txt_last_proc_date</t>
   </si>
   <si>
-    <t>link_nacuboGLAccountCategoryProfile_wait</t>
-  </si>
-  <si>
     <t>link_nacuboGLAccountClassProfile_wait</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Demo456</t>
   </si>
   <si>
-    <t>selectByVisibleTextInput</t>
-  </si>
-  <si>
     <t>dropdown_nacuboGLAccountCategory_nacuboClass</t>
   </si>
   <si>
@@ -154,7 +148,10 @@
     <t>Offset2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12 - DS </t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>selectByVisibleText</t>
   </si>
 </sst>
 </file>
@@ -280,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,6 +289,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +608,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -676,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -701,13 +699,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -821,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB0F954-B072-402F-ACD8-29BAEE533CC4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -856,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -873,16 +871,16 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H2" s="7"/>
     </row>
